--- a/Results/BeatAML/BeatAML.report.xlsx
+++ b/Results/BeatAML/BeatAML.report.xlsx
@@ -2416,7 +2416,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2447,25 +2447,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2502,7 +2490,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2515,11 +2503,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2527,27 +2523,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2570,30 +2550,30 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H42" activeCellId="0" sqref="H42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="21.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="16" style="1" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="16" style="1" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="15.34"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="24" style="1" width="11.8"/>
   </cols>
   <sheetData>
@@ -3271,49 +3251,49 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O12" s="5" t="n">
+      <c r="O12" s="3" t="n">
         <v>0.49671772428884</v>
       </c>
       <c r="P12" s="4"/>
@@ -3336,49 +3316,49 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="O13" s="5" t="n">
+      <c r="O13" s="3" t="n">
         <v>0.172866520787746</v>
       </c>
       <c r="P13" s="4"/>
@@ -3401,49 +3381,49 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="O14" s="5" t="n">
+      <c r="O14" s="3" t="n">
         <v>0.295404814004376</v>
       </c>
       <c r="P14" s="4" t="n">
@@ -3472,49 +3452,49 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O15" s="5" t="n">
+      <c r="O15" s="3" t="n">
         <v>0.49671772428884</v>
       </c>
       <c r="P15" s="4"/>
@@ -3537,49 +3517,49 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="O16" s="5" t="n">
+      <c r="O16" s="3" t="n">
         <v>0.575492341356674</v>
       </c>
       <c r="P16" s="4"/>
@@ -3602,58 +3582,58 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="O17" s="5" t="n">
+      <c r="O17" s="3" t="n">
         <v>0.288840262582057</v>
       </c>
-      <c r="P17" s="6" t="n">
+      <c r="P17" s="5" t="n">
         <v>0.9972</v>
       </c>
-      <c r="Q17" s="6" t="n">
+      <c r="Q17" s="5" t="n">
         <v>0.005897137</v>
       </c>
-      <c r="R17" s="6" t="n">
+      <c r="R17" s="5" t="n">
         <v>0.3824</v>
       </c>
       <c r="S17" s="1" t="s">
@@ -3673,54 +3653,54 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O18" s="5" t="n">
+      <c r="O18" s="3" t="n">
         <v>0.49671772428884</v>
       </c>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
       <c r="S18" s="1" t="s">
         <v>100</v>
       </c>
@@ -3738,54 +3718,54 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="O19" s="5" t="n">
+      <c r="O19" s="3" t="n">
         <v>0.295404814004376</v>
       </c>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
       <c r="S19" s="1" t="s">
         <v>100</v>
       </c>
@@ -3848,9 +3828,9 @@
       <c r="O20" s="1" t="n">
         <v>0.391684901531729</v>
       </c>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
       <c r="S20" s="1" t="s">
         <v>100</v>
       </c>
@@ -3913,13 +3893,13 @@
       <c r="O21" s="1" t="n">
         <v>0.045</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="P21" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="Q21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="R21" s="6" t="n">
+      <c r="R21" s="5" t="n">
         <v>0.044</v>
       </c>
       <c r="S21" s="1" t="s">
@@ -3984,9 +3964,9 @@
       <c r="O22" s="1" t="n">
         <v>5.66E-006</v>
       </c>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
       <c r="S22" s="1" t="s">
         <v>133</v>
       </c>
@@ -4049,13 +4029,13 @@
       <c r="O23" s="1" t="n">
         <v>0.932</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="P23" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="Q23" s="7" t="s">
+      <c r="Q23" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="R23" s="6" t="n">
+      <c r="R23" s="5" t="n">
         <v>0.932</v>
       </c>
       <c r="S23" s="1" t="s">
@@ -4120,9 +4100,9 @@
       <c r="O24" s="1" t="n">
         <v>0.687</v>
       </c>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
       <c r="S24" s="1" t="s">
         <v>152</v>
       </c>
@@ -4185,13 +4165,13 @@
       <c r="O25" s="1" t="n">
         <v>8.94E-016</v>
       </c>
-      <c r="P25" s="6" t="s">
+      <c r="P25" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="R25" s="8" t="n">
+      <c r="R25" s="6" t="n">
         <v>8.94E-016</v>
       </c>
       <c r="S25" s="1" t="s">
@@ -4256,9 +4236,9 @@
       <c r="O26" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
       <c r="S26" s="1" t="s">
         <v>166</v>
       </c>
@@ -4480,13 +4460,13 @@
       <c r="O30" s="1" t="n">
         <v>0.0452228350037296</v>
       </c>
-      <c r="P30" s="6" t="s">
+      <c r="P30" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q30" s="6" t="s">
+      <c r="Q30" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R30" s="6" t="n">
+      <c r="R30" s="5" t="n">
         <v>0.02102</v>
       </c>
       <c r="S30" s="1" t="s">
@@ -4551,9 +4531,9 @@
       <c r="O31" s="1" t="n">
         <v>0.161363068435559</v>
       </c>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
       <c r="S31" s="1" t="s">
         <v>183</v>
       </c>
@@ -4961,31 +4941,31 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="7" t="s">
         <v>206</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -5215,28 +5195,28 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="7" t="s">
         <v>234</v>
       </c>
       <c r="I42" s="1" t="s">
@@ -5325,13 +5305,13 @@
       <c r="O43" s="1" t="n">
         <v>0.0087527352297593</v>
       </c>
-      <c r="P43" s="6" t="n">
+      <c r="P43" s="5" t="n">
         <v>0.5359</v>
       </c>
-      <c r="Q43" s="6" t="n">
+      <c r="Q43" s="5" t="n">
         <v>-0.4598178</v>
       </c>
-      <c r="R43" s="6" t="n">
+      <c r="R43" s="5" t="n">
         <v>0.0021</v>
       </c>
       <c r="S43" s="1" t="s">
@@ -5396,9 +5376,9 @@
       <c r="O44" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
       <c r="S44" s="1" t="s">
         <v>248</v>
       </c>
@@ -5514,13 +5494,13 @@
       <c r="O46" s="1" t="n">
         <v>0.982494529540481</v>
       </c>
-      <c r="P46" s="6" t="n">
+      <c r="P46" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q46" s="6" t="n">
+      <c r="Q46" s="5" t="n">
         <v>0.0043</v>
       </c>
-      <c r="R46" s="6" t="n">
+      <c r="R46" s="5" t="n">
         <v>1</v>
       </c>
       <c r="S46" s="1" t="s">
@@ -5579,9 +5559,9 @@
       <c r="M47" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
       <c r="S47" s="1" t="s">
         <v>266</v>
       </c>
@@ -5644,13 +5624,13 @@
       <c r="O48" s="1" t="n">
         <v>0.0087527352297593</v>
       </c>
-      <c r="P48" s="10" t="n">
+      <c r="P48" s="8" t="n">
         <v>0.5359</v>
       </c>
-      <c r="Q48" s="6" t="n">
+      <c r="Q48" s="5" t="n">
         <v>-0.4597</v>
       </c>
-      <c r="R48" s="6" t="n">
+      <c r="R48" s="5" t="n">
         <v>0.0021</v>
       </c>
       <c r="S48" s="1" t="s">
@@ -5715,9 +5695,9 @@
       <c r="O49" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
       <c r="S49" s="1" t="s">
         <v>268</v>
       </c>
@@ -5780,13 +5760,13 @@
       <c r="O50" s="1" t="n">
         <v>0.282275711159737</v>
       </c>
-      <c r="P50" s="6" t="n">
+      <c r="P50" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q50" s="7" t="n">
+      <c r="Q50" s="4" t="n">
         <v>0.0043</v>
       </c>
-      <c r="R50" s="6" t="n">
+      <c r="R50" s="5" t="n">
         <v>1</v>
       </c>
       <c r="S50" s="1" t="s">
@@ -5845,9 +5825,9 @@
       <c r="M51" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
       <c r="S51" s="1" t="s">
         <v>277</v>
       </c>
@@ -5910,13 +5890,13 @@
       <c r="O52" s="1" t="n">
         <v>0.49671772428884</v>
       </c>
-      <c r="P52" s="6" t="n">
+      <c r="P52" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q52" s="7" t="n">
+      <c r="Q52" s="4" t="n">
         <v>0.0043</v>
       </c>
-      <c r="R52" s="6" t="n">
+      <c r="R52" s="5" t="n">
         <v>1</v>
       </c>
       <c r="S52" s="1" t="s">
@@ -5975,9 +5955,9 @@
       <c r="M53" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
       <c r="S53" s="1" t="s">
         <v>283</v>
       </c>
@@ -6843,13 +6823,13 @@
       <c r="O67" s="1" t="n">
         <v>0.606126914660831</v>
       </c>
-      <c r="P67" s="6" t="n">
+      <c r="P67" s="5" t="n">
         <v>0.9725</v>
       </c>
-      <c r="Q67" s="6" t="n">
+      <c r="Q67" s="5" t="n">
         <v>-0.0102</v>
       </c>
-      <c r="R67" s="6" t="n">
+      <c r="R67" s="5" t="n">
         <v>0.3026</v>
       </c>
       <c r="S67" s="1" t="s">
@@ -6914,9 +6894,9 @@
       <c r="O68" s="1" t="n">
         <v>0.282275711159737</v>
       </c>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
       <c r="S68" s="1" t="s">
         <v>230</v>
       </c>
@@ -6979,13 +6959,13 @@
       <c r="O69" s="1" t="n">
         <v>0.0328227571115973</v>
       </c>
-      <c r="P69" s="6" t="n">
+      <c r="P69" s="5" t="n">
         <v>0.9355</v>
       </c>
-      <c r="Q69" s="6" t="n">
+      <c r="Q69" s="5" t="n">
         <v>-0.03</v>
       </c>
-      <c r="R69" s="6" t="n">
+      <c r="R69" s="5" t="n">
         <v>0.0984</v>
       </c>
       <c r="S69" s="1" t="s">
@@ -7050,9 +7030,9 @@
       <c r="O70" s="1" t="n">
         <v>0.940919037199125</v>
       </c>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
       <c r="S70" s="1" t="s">
         <v>266</v>
       </c>
@@ -7734,13 +7714,13 @@
       <c r="O82" s="1" t="n">
         <v>0.153172866520788</v>
       </c>
-      <c r="P82" s="6" t="n">
+      <c r="P82" s="5" t="n">
         <v>0.9692</v>
       </c>
-      <c r="Q82" s="6" t="n">
+      <c r="Q82" s="5" t="n">
         <v>-0.0032</v>
       </c>
-      <c r="R82" s="6" t="n">
+      <c r="R82" s="5" t="n">
         <v>0.3815</v>
       </c>
       <c r="S82" s="1" t="s">
@@ -7805,9 +7785,9 @@
       <c r="O83" s="1" t="n">
         <v>0.38074398249453</v>
       </c>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
       <c r="S83" s="1" t="s">
         <v>386</v>
       </c>
@@ -7870,13 +7850,13 @@
       <c r="O84" s="1" t="n">
         <v>0.155361050328228</v>
       </c>
-      <c r="P84" s="6" t="n">
+      <c r="P84" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q84" s="6" t="n">
+      <c r="Q84" s="5" t="n">
         <v>0.0275</v>
       </c>
-      <c r="R84" s="11" t="n">
+      <c r="R84" s="9" t="n">
         <v>1</v>
       </c>
       <c r="S84" s="1" t="s">
@@ -7935,9 +7915,9 @@
       <c r="M85" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="11"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="9"/>
       <c r="S85" s="1" t="s">
         <v>343</v>
       </c>
@@ -8000,13 +7980,13 @@
       <c r="O86" s="1" t="n">
         <v>0.474835886214442</v>
       </c>
-      <c r="P86" s="6" t="n">
+      <c r="P86" s="5" t="n">
         <v>0.978</v>
       </c>
-      <c r="Q86" s="6" t="n">
+      <c r="Q86" s="5" t="n">
         <v>0.0055</v>
       </c>
-      <c r="R86" s="6" t="n">
+      <c r="R86" s="5" t="n">
         <v>0.5328</v>
       </c>
       <c r="S86" s="1" t="s">
@@ -8071,9 +8051,9 @@
       <c r="O87" s="1" t="n">
         <v>0.566739606126915</v>
       </c>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
       <c r="S87" s="1" t="s">
         <v>424</v>
       </c>
@@ -8136,13 +8116,13 @@
       <c r="O88" s="1" t="n">
         <v>0.148796498905908</v>
       </c>
-      <c r="P88" s="6" t="n">
+      <c r="P88" s="5" t="n">
         <v>0.6961</v>
       </c>
-      <c r="Q88" s="6" t="n">
+      <c r="Q88" s="5" t="n">
         <v>-0.3009</v>
       </c>
-      <c r="R88" s="6" t="n">
+      <c r="R88" s="5" t="n">
         <v>0.0022</v>
       </c>
       <c r="S88" s="1" t="s">
@@ -8207,9 +8187,9 @@
       <c r="O89" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
       <c r="S89" s="1" t="s">
         <v>248</v>
       </c>
@@ -8378,13 +8358,13 @@
       <c r="O92" s="1" t="n">
         <v>0.330415754923414</v>
       </c>
-      <c r="P92" s="6" t="n">
+      <c r="P92" s="5" t="n">
         <v>0.9543</v>
       </c>
-      <c r="Q92" s="6" t="n">
+      <c r="Q92" s="5" t="n">
         <v>-0.0413</v>
       </c>
-      <c r="R92" s="6" t="n">
+      <c r="R92" s="5" t="n">
         <v>0.0043</v>
       </c>
       <c r="S92" s="1" t="s">
@@ -8449,9 +8429,9 @@
       <c r="O93" s="1" t="n">
         <v>0.00218818380743979</v>
       </c>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
-      <c r="R93" s="6"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
       <c r="S93" s="1" t="s">
         <v>467</v>
       </c>
@@ -8514,13 +8494,13 @@
       <c r="O94" s="1" t="n">
         <v>0.450765864332604</v>
       </c>
-      <c r="P94" s="6" t="n">
+      <c r="P94" s="5" t="n">
         <v>0.9766</v>
       </c>
-      <c r="Q94" s="6" t="n">
+      <c r="Q94" s="5" t="n">
         <v>-0.019</v>
       </c>
-      <c r="R94" s="6" t="n">
+      <c r="R94" s="5" t="n">
         <v>0.0219</v>
       </c>
       <c r="S94" s="1" t="s">
@@ -8585,9 +8565,9 @@
       <c r="O95" s="1" t="n">
         <v>0.0175054704595186</v>
       </c>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
       <c r="S95" s="1" t="s">
         <v>480</v>
       </c>
@@ -8650,13 +8630,13 @@
       <c r="O96" s="1" t="n">
         <v>0.446389496717724</v>
       </c>
-      <c r="P96" s="6" t="n">
+      <c r="P96" s="5" t="n">
         <v>0.9524</v>
       </c>
-      <c r="Q96" s="6" t="n">
+      <c r="Q96" s="5" t="n">
         <v>-0.0292</v>
       </c>
-      <c r="R96" s="6" t="n">
+      <c r="R96" s="5" t="n">
         <v>0.1211</v>
       </c>
       <c r="S96" s="1" t="s">
@@ -8721,9 +8701,9 @@
       <c r="O97" s="1" t="n">
         <v>0.12253829321663</v>
       </c>
-      <c r="P97" s="6"/>
-      <c r="Q97" s="6"/>
-      <c r="R97" s="6"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
       <c r="S97" s="1" t="s">
         <v>494</v>
       </c>
@@ -8786,13 +8766,13 @@
       <c r="O98" s="1" t="n">
         <v>0.722100656455142</v>
       </c>
-      <c r="P98" s="6" t="n">
+      <c r="P98" s="5" t="n">
         <v>0.9545</v>
       </c>
-      <c r="Q98" s="6" t="n">
+      <c r="Q98" s="5" t="n">
         <v>-0.0271</v>
       </c>
-      <c r="R98" s="6" t="n">
+      <c r="R98" s="5" t="n">
         <v>0.1431</v>
       </c>
       <c r="S98" s="1" t="s">
@@ -8857,9 +8837,9 @@
       <c r="O99" s="1" t="n">
         <v>0.0853391684901532</v>
       </c>
-      <c r="P99" s="6"/>
-      <c r="Q99" s="6"/>
-      <c r="R99" s="6"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
       <c r="S99" s="1" t="s">
         <v>503</v>
       </c>
